--- a/최종 전처리 데이터 모음/2016/2016년 기준 최종 전처리 산업연관표(수입거래표).xlsx
+++ b/최종 전처리 데이터 모음/2016/2016년 기준 최종 전처리 산업연관표(수입거래표).xlsx
@@ -667,7 +667,9 @@
       <c r="W2" t="n">
         <v>2988434</v>
       </c>
-      <c r="X2" t="inlineStr"/>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
       <c r="Y2" t="n">
         <v>37489</v>
       </c>
@@ -677,8 +679,12 @@
       <c r="AA2" t="n">
         <v>39233</v>
       </c>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
       <c r="AD2" t="n">
         <v>3066767</v>
       </c>
@@ -761,14 +767,24 @@
       <c r="W3" t="n">
         <v>9459</v>
       </c>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
       <c r="AA3" t="n">
         <v>-1089446</v>
       </c>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
       <c r="AD3" t="n">
         <v>-1079987</v>
       </c>
@@ -851,7 +867,9 @@
       <c r="W4" t="n">
         <v>57914931.3311</v>
       </c>
-      <c r="X4" t="inlineStr"/>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
       <c r="Y4" t="n">
         <v>43813992.9092</v>
       </c>
@@ -861,8 +879,12 @@
       <c r="AA4" t="n">
         <v>864539.7298</v>
       </c>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
+      <c r="AB4" t="n">
+        <v>468399</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>2854817</v>
+      </c>
       <c r="AD4" t="n">
         <v>111001445.1227</v>
       </c>
@@ -945,12 +967,24 @@
       <c r="W5" t="n">
         <v>74571</v>
       </c>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr"/>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
       <c r="AD5" t="n">
         <v>74571</v>
       </c>
@@ -1030,15 +1064,27 @@
       <c r="V6" t="n">
         <v>24527</v>
       </c>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
       <c r="Z6" t="n">
         <v>13809</v>
       </c>
-      <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr"/>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
       <c r="AD6" t="n">
         <v>13809</v>
       </c>
@@ -1121,12 +1167,24 @@
       <c r="W7" t="n">
         <v>6095430</v>
       </c>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="inlineStr"/>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
       <c r="AD7" t="n">
         <v>6095430</v>
       </c>
@@ -1209,12 +1267,24 @@
       <c r="W8" t="n">
         <v>14575391</v>
       </c>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
-      <c r="AB8" t="inlineStr"/>
-      <c r="AC8" t="inlineStr"/>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
       <c r="AD8" t="n">
         <v>14575391</v>
       </c>
@@ -1297,14 +1367,24 @@
       <c r="W9" t="n">
         <v>952508.4514</v>
       </c>
-      <c r="X9" t="inlineStr"/>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
       <c r="Y9" t="n">
         <v>401536.8676</v>
       </c>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
-      <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="inlineStr"/>
+      <c r="Z9" t="n">
+        <v>5192.1223</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>-103.4066</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
       <c r="AD9" t="n">
         <v>1359134.0347</v>
       </c>
@@ -1387,12 +1467,24 @@
       <c r="W10" t="n">
         <v>747545</v>
       </c>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
       <c r="AD10" t="n">
         <v>747545</v>
       </c>
@@ -1475,12 +1567,24 @@
       <c r="W11" t="n">
         <v>454256</v>
       </c>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr"/>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
       <c r="AD11" t="n">
         <v>454256</v>
       </c>
@@ -1549,7 +1653,7 @@
         <v>2107818.93644175</v>
       </c>
       <c r="S12" t="n">
-        <v>692633.42836512</v>
+        <v>692633.4283651201</v>
       </c>
       <c r="T12" t="n">
         <v>474608.1942329</v>
@@ -1563,12 +1667,24 @@
       <c r="W12" t="n">
         <v>338112.2081</v>
       </c>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr"/>
-      <c r="AB12" t="inlineStr"/>
-      <c r="AC12" t="inlineStr"/>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>2884591.2672</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>119264.1021</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
       <c r="AD12" t="n">
         <v>3341967.5774</v>
       </c>
@@ -1651,12 +1767,24 @@
       <c r="W13" t="n">
         <v>3684</v>
       </c>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr"/>
-      <c r="AB13" t="inlineStr"/>
-      <c r="AC13" t="inlineStr"/>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
       <c r="AD13" t="n">
         <v>3684</v>
       </c>
@@ -1739,12 +1867,24 @@
       <c r="W14" t="n">
         <v>2286885</v>
       </c>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
-      <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="inlineStr"/>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
       <c r="AD14" t="n">
         <v>2286885</v>
       </c>
@@ -1827,12 +1967,24 @@
       <c r="W15" t="n">
         <v>471676</v>
       </c>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="inlineStr"/>
-      <c r="AC15" t="inlineStr"/>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
       <c r="AD15" t="n">
         <v>471676</v>
       </c>
@@ -1895,7 +2047,7 @@
         <v>77881.09600000001</v>
       </c>
       <c r="Q16" t="n">
-        <v>644.5161936</v>
+        <v>644.5161936000001</v>
       </c>
       <c r="R16" t="n">
         <v>51359.701876</v>
@@ -1912,14 +2064,30 @@
       <c r="V16" t="n">
         <v>582192.312</v>
       </c>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr"/>
-      <c r="AC16" t="inlineStr"/>
-      <c r="AD16" t="inlineStr"/>
+      <c r="W16" t="n">
+        <v>5066505</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>119324</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>38234</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>5224063</v>
+      </c>
       <c r="AE16" t="n">
         <v>5806255.312</v>
       </c>
@@ -1999,7 +2167,9 @@
       <c r="W17" t="n">
         <v>376799.6689</v>
       </c>
-      <c r="X17" t="inlineStr"/>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
       <c r="Y17" t="n">
         <v>2862251.0908</v>
       </c>
@@ -2009,8 +2179,12 @@
       <c r="AA17" t="n">
         <v>30928.2702</v>
       </c>
-      <c r="AB17" t="inlineStr"/>
-      <c r="AC17" t="inlineStr"/>
+      <c r="AB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
       <c r="AD17" t="n">
         <v>3724162.8773</v>
       </c>
@@ -2073,7 +2247,7 @@
         <v>2708.613236</v>
       </c>
       <c r="Q18" t="n">
-        <v>9642.476792199999</v>
+        <v>9642.476792200001</v>
       </c>
       <c r="R18" t="n">
         <v>22283.81061725</v>
@@ -2090,14 +2264,30 @@
       <c r="V18" t="n">
         <v>1619914.863</v>
       </c>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="inlineStr"/>
-      <c r="AB18" t="inlineStr"/>
-      <c r="AC18" t="inlineStr"/>
-      <c r="AD18" t="inlineStr"/>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0</v>
+      </c>
       <c r="AE18" t="n">
         <v>1619914.863</v>
       </c>
@@ -2177,7 +2367,9 @@
       <c r="W19" t="n">
         <v>350044.5486</v>
       </c>
-      <c r="X19" t="inlineStr"/>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
       <c r="Y19" t="n">
         <v>500432.1324</v>
       </c>
@@ -2187,8 +2379,12 @@
       <c r="AA19" t="n">
         <v>-138.5934</v>
       </c>
-      <c r="AB19" t="inlineStr"/>
-      <c r="AC19" t="inlineStr"/>
+      <c r="AB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
       <c r="AD19" t="n">
         <v>857296.9652999999</v>
       </c>
@@ -2271,16 +2467,24 @@
       <c r="W20" t="n">
         <v>73.7919</v>
       </c>
-      <c r="X20" t="inlineStr"/>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
       <c r="Y20" t="n">
         <v>2687344.7328</v>
       </c>
       <c r="Z20" t="n">
         <v>111108.8979</v>
       </c>
-      <c r="AA20" t="inlineStr"/>
-      <c r="AB20" t="inlineStr"/>
-      <c r="AC20" t="inlineStr"/>
+      <c r="AA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
       <c r="AD20" t="n">
         <v>2798527.4226</v>
       </c>
@@ -2343,10 +2547,10 @@
         <v>521.5360000000001</v>
       </c>
       <c r="Q21" t="n">
-        <v>3.2144064</v>
+        <v>3.214406400000001</v>
       </c>
       <c r="R21" t="n">
-        <v>4530.758624</v>
+        <v>4530.758623999999</v>
       </c>
       <c r="S21" t="n">
         <v>150.4047648</v>
@@ -2360,19 +2564,35 @@
       <c r="V21" t="n">
         <v>69410.68800000001</v>
       </c>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr"/>
-      <c r="AA21" t="inlineStr"/>
-      <c r="AB21" t="inlineStr"/>
-      <c r="AC21" t="inlineStr"/>
-      <c r="AD21" t="inlineStr"/>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0</v>
+      </c>
       <c r="AE21" t="n">
         <v>69410.68800000001</v>
       </c>
       <c r="AF21" t="n">
-        <v>4042.105376000001</v>
+        <v>4042.105376</v>
       </c>
     </row>
     <row r="22">
@@ -2447,7 +2667,9 @@
       <c r="W22" t="n">
         <v>92706306</v>
       </c>
-      <c r="X22" t="inlineStr"/>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
       <c r="Y22" t="n">
         <v>53306962</v>
       </c>
@@ -2542,14 +2764,30 @@
       <c r="V23" t="n">
         <v>1445203.137</v>
       </c>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="inlineStr"/>
-      <c r="AA23" t="inlineStr"/>
-      <c r="AB23" t="inlineStr"/>
-      <c r="AC23" t="inlineStr"/>
-      <c r="AD23" t="inlineStr"/>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0</v>
+      </c>
       <c r="AE23" t="n">
         <v>1445203.137</v>
       </c>
